--- a/Module_1/caseStudy1/Check List CaseStudy C0520G1.xlsx
+++ b/Module_1/caseStudy1/Check List CaseStudy C0520G1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C0520G1-LeToan\Module_1\caseStudy1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B907BE38-6363-4FC0-A7D9-B6571CFE279C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
   <si>
     <t>Module</t>
   </si>
@@ -88,11 +94,14 @@
   <si>
     <t>Nguyễn Trần Đạt</t>
   </si>
+  <si>
+    <t>done</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
@@ -486,44 +495,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,6 +515,38 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,6 +556,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -749,69 +761,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="39.25" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="86.25" customWidth="1"/>
+    <col min="7" max="7" width="39.19921875" customWidth="1"/>
+    <col min="8" max="8" width="10.09765625" customWidth="1"/>
+    <col min="9" max="9" width="19.59765625" customWidth="1"/>
+    <col min="10" max="10" width="86.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="60" t="s">
+      <c r="B1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="59"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="J2" s="45"/>
+    </row>
+    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
       <c r="B3" s="52" t="s">
@@ -834,8 +846,8 @@
       <c r="I3" s="32"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
       <c r="B4" s="53"/>
       <c r="C4" s="36">
         <v>43986</v>
@@ -854,8 +866,8 @@
       <c r="I4" s="7"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44"/>
       <c r="B5" s="53"/>
       <c r="C5" s="36">
         <v>43987</v>
@@ -874,8 +886,8 @@
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44"/>
       <c r="B6" s="53"/>
       <c r="C6" s="36">
         <v>43988</v>
@@ -894,8 +906,8 @@
       <c r="I6" s="7"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
       <c r="B7" s="53"/>
       <c r="C7" s="36">
         <v>43989</v>
@@ -914,8 +926,8 @@
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
       <c r="B8" s="53"/>
       <c r="C8" s="36">
         <v>43990</v>
@@ -934,8 +946,8 @@
       <c r="I8" s="7"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
       <c r="B9" s="53"/>
       <c r="C9" s="36">
         <v>43992</v>
@@ -954,8 +966,8 @@
       <c r="I9" s="7"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
       <c r="B10" s="53"/>
       <c r="C10" s="36">
         <v>43994</v>
@@ -974,8 +986,8 @@
       <c r="I10" s="7"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
       <c r="B11" s="53"/>
       <c r="C11" s="36">
         <v>43996</v>
@@ -994,8 +1006,8 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
       <c r="B12" s="53"/>
       <c r="C12" s="36">
         <v>43998</v>
@@ -1014,8 +1026,8 @@
       <c r="I12" s="12"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
       <c r="B13" s="53"/>
       <c r="C13" s="36">
         <v>44000</v>
@@ -1034,8 +1046,8 @@
       <c r="I13" s="12"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
       <c r="B14" s="53"/>
       <c r="C14" s="36">
         <v>44002</v>
@@ -1054,8 +1066,8 @@
       <c r="I14" s="12"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
       <c r="B15" s="53"/>
       <c r="C15" s="36">
         <v>44004</v>
@@ -1074,8 +1086,8 @@
       <c r="I15" s="12"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="44"/>
       <c r="B16" s="54"/>
       <c r="C16" s="36">
         <v>44006</v>
@@ -1094,11 +1106,11 @@
       <c r="I16" s="9"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
-        <v>2</v>
-      </c>
-      <c r="B17" s="55" t="s">
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55">
+        <v>2</v>
+      </c>
+      <c r="B17" s="56" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="37">
@@ -1118,9 +1130,9 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="56"/>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="37">
         <v>43986</v>
       </c>
@@ -1138,9 +1150,9 @@
       <c r="I18" s="21"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="56"/>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="44"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="37">
         <v>43987</v>
       </c>
@@ -1158,9 +1170,9 @@
       <c r="I19" s="21"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="56"/>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="37">
         <v>43988</v>
       </c>
@@ -1178,9 +1190,9 @@
       <c r="I20" s="21"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="56"/>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="37">
         <v>43989</v>
       </c>
@@ -1198,9 +1210,9 @@
       <c r="I21" s="21"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="56"/>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="37">
         <v>43990</v>
       </c>
@@ -1218,9 +1230,9 @@
       <c r="I22" s="21"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="56"/>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="37">
         <v>43992</v>
       </c>
@@ -1238,9 +1250,9 @@
       <c r="I23" s="21"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="56"/>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="37">
         <v>43994</v>
       </c>
@@ -1258,9 +1270,9 @@
       <c r="I24" s="21"/>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="56"/>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="37">
         <v>43996</v>
       </c>
@@ -1278,9 +1290,9 @@
       <c r="I25" s="21"/>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="56"/>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="37">
         <v>43998</v>
       </c>
@@ -1298,9 +1310,9 @@
       <c r="I26" s="24"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="56"/>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="37">
         <v>44000</v>
       </c>
@@ -1318,9 +1330,9 @@
       <c r="I27" s="24"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="56"/>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="37">
         <v>44002</v>
       </c>
@@ -1338,9 +1350,9 @@
       <c r="I28" s="24"/>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="56"/>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="37">
         <v>44004</v>
       </c>
@@ -1358,9 +1370,9 @@
       <c r="I29" s="24"/>
       <c r="J29" s="22"/>
     </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="57"/>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="44"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="37">
         <v>44006</v>
       </c>
@@ -1378,11 +1390,11 @@
       <c r="I30" s="27"/>
       <c r="J30" s="22"/>
     </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="51">
         <v>3</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="36">
@@ -1402,8 +1414,8 @@
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="44"/>
       <c r="B32" s="53"/>
       <c r="C32" s="36">
         <v>43986</v>
@@ -1422,8 +1434,8 @@
       <c r="I32" s="7"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
       <c r="B33" s="53"/>
       <c r="C33" s="36">
         <v>43987</v>
@@ -1442,8 +1454,8 @@
       <c r="I33" s="7"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
       <c r="B34" s="53"/>
       <c r="C34" s="36">
         <v>43988</v>
@@ -1462,8 +1474,8 @@
       <c r="I34" s="7"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
+    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
       <c r="B35" s="53"/>
       <c r="C35" s="36">
         <v>43989</v>
@@ -1482,8 +1494,8 @@
       <c r="I35" s="7"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="44"/>
       <c r="B36" s="53"/>
       <c r="C36" s="36">
         <v>43990</v>
@@ -1502,8 +1514,8 @@
       <c r="I36" s="7"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
       <c r="B37" s="53"/>
       <c r="C37" s="36">
         <v>43992</v>
@@ -1522,8 +1534,8 @@
       <c r="I37" s="7"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="44"/>
       <c r="B38" s="53"/>
       <c r="C38" s="36">
         <v>43994</v>
@@ -1542,8 +1554,8 @@
       <c r="I38" s="7"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="44"/>
       <c r="B39" s="53"/>
       <c r="C39" s="36">
         <v>43996</v>
@@ -1562,8 +1574,8 @@
       <c r="I39" s="9"/>
       <c r="J39" s="10"/>
     </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="44"/>
       <c r="B40" s="53"/>
       <c r="C40" s="36">
         <v>43998</v>
@@ -1582,8 +1594,8 @@
       <c r="I40" s="12"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
       <c r="B41" s="53"/>
       <c r="C41" s="36">
         <v>44000</v>
@@ -1602,8 +1614,8 @@
       <c r="I41" s="12"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="44"/>
       <c r="B42" s="53"/>
       <c r="C42" s="36">
         <v>44002</v>
@@ -1622,8 +1634,8 @@
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44"/>
       <c r="B43" s="53"/>
       <c r="C43" s="36">
         <v>44004</v>
@@ -1642,8 +1654,8 @@
       <c r="I43" s="12"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
       <c r="B44" s="54"/>
       <c r="C44" s="36">
         <v>44006</v>
@@ -1662,11 +1674,11 @@
       <c r="I44" s="12"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47">
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="55">
         <v>4</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="37">
@@ -1686,9 +1698,9 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="37">
         <v>43986</v>
       </c>
@@ -1706,9 +1718,9 @@
       <c r="I46" s="21"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="37">
         <v>43987</v>
       </c>
@@ -1726,9 +1738,9 @@
       <c r="I47" s="21"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="37">
         <v>43988</v>
       </c>
@@ -1746,9 +1758,9 @@
       <c r="I48" s="21"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
+    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="37">
         <v>43989</v>
       </c>
@@ -1766,9 +1778,9 @@
       <c r="I49" s="21"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="37">
         <v>43990</v>
       </c>
@@ -1786,9 +1798,9 @@
       <c r="I50" s="21"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="37">
         <v>43992</v>
       </c>
@@ -1806,9 +1818,9 @@
       <c r="I51" s="21"/>
       <c r="J51" s="22"/>
     </row>
-    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
+    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="37">
         <v>43994</v>
       </c>
@@ -1826,9 +1838,9 @@
       <c r="I52" s="21"/>
       <c r="J52" s="22"/>
     </row>
-    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="37">
         <v>43996</v>
       </c>
@@ -1846,9 +1858,9 @@
       <c r="I53" s="21"/>
       <c r="J53" s="22"/>
     </row>
-    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
+    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="37">
         <v>43998</v>
       </c>
@@ -1866,9 +1878,9 @@
       <c r="I54" s="24"/>
       <c r="J54" s="22"/>
     </row>
-    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
+    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="37">
         <v>44000</v>
       </c>
@@ -1886,9 +1898,9 @@
       <c r="I55" s="24"/>
       <c r="J55" s="22"/>
     </row>
-    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
+    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="37">
         <v>44002</v>
       </c>
@@ -1906,9 +1918,9 @@
       <c r="I56" s="24"/>
       <c r="J56" s="22"/>
     </row>
-    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
+    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="37">
         <v>44004</v>
       </c>
@@ -1926,9 +1938,9 @@
       <c r="I57" s="24"/>
       <c r="J57" s="22"/>
     </row>
-    <row r="58" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="46"/>
+    <row r="58" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="44"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="37">
         <v>44006</v>
       </c>
@@ -1946,11 +1958,11 @@
       <c r="I58" s="27"/>
       <c r="J58" s="22"/>
     </row>
-    <row r="59" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44">
+    <row r="59" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="51">
         <v>5</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="36">
@@ -1970,9 +1982,9 @@
       <c r="I59" s="5"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
+    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="36">
         <v>43986</v>
       </c>
@@ -1990,9 +2002,9 @@
       <c r="I60" s="7"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
+    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="36">
         <v>43987</v>
       </c>
@@ -2010,9 +2022,9 @@
       <c r="I61" s="7"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
+    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="36">
         <v>43988</v>
       </c>
@@ -2030,9 +2042,9 @@
       <c r="I62" s="7"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
+    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="36">
         <v>43989</v>
       </c>
@@ -2050,9 +2062,9 @@
       <c r="I63" s="7"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
+    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="36">
         <v>43990</v>
       </c>
@@ -2070,9 +2082,9 @@
       <c r="I64" s="7"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
+    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="36">
         <v>43992</v>
       </c>
@@ -2090,9 +2102,9 @@
       <c r="I65" s="7"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
+    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="36">
         <v>43994</v>
       </c>
@@ -2110,9 +2122,9 @@
       <c r="I66" s="7"/>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
+    <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="36">
         <v>43996</v>
       </c>
@@ -2130,9 +2142,9 @@
       <c r="I67" s="7"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
+    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="36">
         <v>43998</v>
       </c>
@@ -2150,9 +2162,9 @@
       <c r="I68" s="12"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
+    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="36">
         <v>44000</v>
       </c>
@@ -2170,9 +2182,9 @@
       <c r="I69" s="12"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
+    <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="36">
         <v>44002</v>
       </c>
@@ -2190,9 +2202,9 @@
       <c r="I70" s="12"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
+    <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="36">
         <v>44004</v>
       </c>
@@ -2210,9 +2222,9 @@
       <c r="I71" s="12"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
-      <c r="B72" s="46"/>
+    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="44"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="36">
         <v>44006</v>
       </c>
@@ -2230,11 +2242,11 @@
       <c r="I72" s="9"/>
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47">
+    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="55">
         <v>6</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C73" s="37">
@@ -2250,13 +2262,15 @@
         <v>1</v>
       </c>
       <c r="G73" s="17"/>
-      <c r="H73" s="18"/>
+      <c r="H73" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
+    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="37">
         <v>43986</v>
       </c>
@@ -2270,13 +2284,15 @@
         <v>2</v>
       </c>
       <c r="G74" s="17"/>
-      <c r="H74" s="18"/>
+      <c r="H74" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I74" s="21"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
+    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="37">
         <v>43987</v>
       </c>
@@ -2290,13 +2306,15 @@
         <v>1</v>
       </c>
       <c r="G75" s="17"/>
-      <c r="H75" s="18"/>
+      <c r="H75" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I75" s="21"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
+    <row r="76" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="37">
         <v>43988</v>
       </c>
@@ -2310,13 +2328,15 @@
         <v>2</v>
       </c>
       <c r="G76" s="17"/>
-      <c r="H76" s="18"/>
+      <c r="H76" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I76" s="21"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
+    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="37">
         <v>43989</v>
       </c>
@@ -2330,13 +2350,15 @@
         <v>3</v>
       </c>
       <c r="G77" s="17"/>
-      <c r="H77" s="18"/>
+      <c r="H77" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I77" s="21"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
+    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="37">
         <v>43990</v>
       </c>
@@ -2354,9 +2376,9 @@
       <c r="I78" s="21"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
+    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="37">
         <v>43992</v>
       </c>
@@ -2374,9 +2396,9 @@
       <c r="I79" s="21"/>
       <c r="J79" s="22"/>
     </row>
-    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
+    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="37">
         <v>43994</v>
       </c>
@@ -2394,9 +2416,9 @@
       <c r="I80" s="21"/>
       <c r="J80" s="22"/>
     </row>
-    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
+    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="37">
         <v>43996</v>
       </c>
@@ -2414,9 +2436,9 @@
       <c r="I81" s="21"/>
       <c r="J81" s="22"/>
     </row>
-    <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
+    <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="37">
         <v>43998</v>
       </c>
@@ -2434,9 +2456,9 @@
       <c r="I82" s="24"/>
       <c r="J82" s="22"/>
     </row>
-    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
+    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="37">
         <v>44000</v>
       </c>
@@ -2454,9 +2476,9 @@
       <c r="I83" s="24"/>
       <c r="J83" s="22"/>
     </row>
-    <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
+    <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="37">
         <v>44002</v>
       </c>
@@ -2474,9 +2496,9 @@
       <c r="I84" s="24"/>
       <c r="J84" s="22"/>
     </row>
-    <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
+    <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="37">
         <v>44004</v>
       </c>
@@ -2494,9 +2516,9 @@
       <c r="I85" s="24"/>
       <c r="J85" s="22"/>
     </row>
-    <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="43"/>
-      <c r="B86" s="46"/>
+    <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="44"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="37">
         <v>44006</v>
       </c>
@@ -2514,11 +2536,11 @@
       <c r="I86" s="27"/>
       <c r="J86" s="22"/>
     </row>
-    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="44">
+    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="51">
         <v>7</v>
       </c>
-      <c r="B87" s="45" t="s">
+      <c r="B87" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C87" s="36">
@@ -2538,9 +2560,9 @@
       <c r="I87" s="32"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
+    <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="36">
         <v>43986</v>
       </c>
@@ -2558,9 +2580,9 @@
       <c r="I88" s="7"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
+    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="36">
         <v>43987</v>
       </c>
@@ -2578,9 +2600,9 @@
       <c r="I89" s="7"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
+    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="44"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="36">
         <v>43988</v>
       </c>
@@ -2598,9 +2620,9 @@
       <c r="I90" s="7"/>
       <c r="J90" s="6"/>
     </row>
-    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
+    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="44"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="36">
         <v>43989</v>
       </c>
@@ -2618,9 +2640,9 @@
       <c r="I91" s="7"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
+    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="44"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="36">
         <v>43990</v>
       </c>
@@ -2638,9 +2660,9 @@
       <c r="I92" s="7"/>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
-      <c r="B93" s="43"/>
+    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="44"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="36">
         <v>43992</v>
       </c>
@@ -2658,9 +2680,9 @@
       <c r="I93" s="7"/>
       <c r="J93" s="10"/>
     </row>
-    <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
+    <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="44"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="36">
         <v>43994</v>
       </c>
@@ -2678,9 +2700,9 @@
       <c r="I94" s="7"/>
       <c r="J94" s="10"/>
     </row>
-    <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
+    <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="44"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="36">
         <v>43996</v>
       </c>
@@ -2698,9 +2720,9 @@
       <c r="I95" s="7"/>
       <c r="J95" s="10"/>
     </row>
-    <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
+    <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="36">
         <v>43998</v>
       </c>
@@ -2718,9 +2740,9 @@
       <c r="I96" s="12"/>
       <c r="J96" s="10"/>
     </row>
-    <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
+    <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="36">
         <v>44000</v>
       </c>
@@ -2738,9 +2760,9 @@
       <c r="I97" s="12"/>
       <c r="J97" s="10"/>
     </row>
-    <row r="98" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
+    <row r="98" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="36">
         <v>44002</v>
       </c>
@@ -2758,9 +2780,9 @@
       <c r="I98" s="12"/>
       <c r="J98" s="10"/>
     </row>
-    <row r="99" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
+    <row r="99" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="36">
         <v>44004</v>
       </c>
@@ -2778,9 +2800,9 @@
       <c r="I99" s="12"/>
       <c r="J99" s="10"/>
     </row>
-    <row r="100" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="43"/>
-      <c r="B100" s="46"/>
+    <row r="100" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="44"/>
+      <c r="B100" s="45"/>
       <c r="C100" s="36">
         <v>44006</v>
       </c>
@@ -2798,11 +2820,11 @@
       <c r="I100" s="9"/>
       <c r="J100" s="10"/>
     </row>
-    <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="47">
+    <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="55">
         <v>8</v>
       </c>
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C101" s="37">
@@ -2822,9 +2844,9 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="43"/>
-      <c r="B102" s="43"/>
+    <row r="102" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="44"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="37">
         <v>43986</v>
       </c>
@@ -2842,9 +2864,9 @@
       <c r="I102" s="21"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="43"/>
-      <c r="B103" s="43"/>
+    <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="44"/>
+      <c r="B103" s="44"/>
       <c r="C103" s="37">
         <v>43987</v>
       </c>
@@ -2862,9 +2884,9 @@
       <c r="I103" s="21"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="43"/>
+    <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="44"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="37">
         <v>43988</v>
       </c>
@@ -2882,9 +2904,9 @@
       <c r="I104" s="21"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="43"/>
+    <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="44"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="37">
         <v>43989</v>
       </c>
@@ -2902,9 +2924,9 @@
       <c r="I105" s="21"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="43"/>
-      <c r="B106" s="43"/>
+    <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="44"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="37">
         <v>43990</v>
       </c>
@@ -2922,9 +2944,9 @@
       <c r="I106" s="21"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="43"/>
-      <c r="B107" s="43"/>
+    <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="44"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="37">
         <v>43992</v>
       </c>
@@ -2942,9 +2964,9 @@
       <c r="I107" s="21"/>
       <c r="J107" s="22"/>
     </row>
-    <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="43"/>
-      <c r="B108" s="43"/>
+    <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="44"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="37">
         <v>43994</v>
       </c>
@@ -2962,9 +2984,9 @@
       <c r="I108" s="21"/>
       <c r="J108" s="22"/>
     </row>
-    <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="43"/>
-      <c r="B109" s="43"/>
+    <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="44"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="37">
         <v>43996</v>
       </c>
@@ -2982,9 +3004,9 @@
       <c r="I109" s="21"/>
       <c r="J109" s="22"/>
     </row>
-    <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
-      <c r="B110" s="43"/>
+    <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="44"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="37">
         <v>43998</v>
       </c>
@@ -3002,9 +3024,9 @@
       <c r="I110" s="24"/>
       <c r="J110" s="22"/>
     </row>
-    <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="43"/>
-      <c r="B111" s="43"/>
+    <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="44"/>
+      <c r="B111" s="44"/>
       <c r="C111" s="37">
         <v>44000</v>
       </c>
@@ -3022,9 +3044,9 @@
       <c r="I111" s="24"/>
       <c r="J111" s="22"/>
     </row>
-    <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
-      <c r="B112" s="43"/>
+    <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="44"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="37">
         <v>44002</v>
       </c>
@@ -3042,9 +3064,9 @@
       <c r="I112" s="24"/>
       <c r="J112" s="22"/>
     </row>
-    <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="43"/>
-      <c r="B113" s="43"/>
+    <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="44"/>
+      <c r="B113" s="44"/>
       <c r="C113" s="37">
         <v>44004</v>
       </c>
@@ -3062,9 +3084,9 @@
       <c r="I113" s="24"/>
       <c r="J113" s="22"/>
     </row>
-    <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="43"/>
-      <c r="B114" s="46"/>
+    <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="44"/>
+      <c r="B114" s="45"/>
       <c r="C114" s="37">
         <v>44006</v>
       </c>
@@ -3082,11 +3104,11 @@
       <c r="I114" s="27"/>
       <c r="J114" s="22"/>
     </row>
-    <row r="115" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="44">
+    <row r="115" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="51">
         <v>9</v>
       </c>
-      <c r="B115" s="49" t="s">
+      <c r="B115" s="60" t="s">
         <v>21</v>
       </c>
       <c r="C115" s="36">
@@ -3106,9 +3128,9 @@
       <c r="I115" s="5"/>
       <c r="J115" s="6"/>
     </row>
-    <row r="116" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="43"/>
-      <c r="B116" s="50"/>
+    <row r="116" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="44"/>
+      <c r="B116" s="61"/>
       <c r="C116" s="36">
         <v>43986</v>
       </c>
@@ -3126,9 +3148,9 @@
       <c r="I116" s="7"/>
       <c r="J116" s="6"/>
     </row>
-    <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="43"/>
-      <c r="B117" s="50"/>
+    <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="44"/>
+      <c r="B117" s="61"/>
       <c r="C117" s="36">
         <v>43987</v>
       </c>
@@ -3146,9 +3168,9 @@
       <c r="I117" s="7"/>
       <c r="J117" s="6"/>
     </row>
-    <row r="118" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="43"/>
-      <c r="B118" s="50"/>
+    <row r="118" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="44"/>
+      <c r="B118" s="61"/>
       <c r="C118" s="36">
         <v>43988</v>
       </c>
@@ -3166,9 +3188,9 @@
       <c r="I118" s="7"/>
       <c r="J118" s="6"/>
     </row>
-    <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="43"/>
-      <c r="B119" s="50"/>
+    <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="44"/>
+      <c r="B119" s="61"/>
       <c r="C119" s="36">
         <v>43989</v>
       </c>
@@ -3186,9 +3208,9 @@
       <c r="I119" s="7"/>
       <c r="J119" s="6"/>
     </row>
-    <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="43"/>
-      <c r="B120" s="50"/>
+    <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="44"/>
+      <c r="B120" s="61"/>
       <c r="C120" s="36">
         <v>43990</v>
       </c>
@@ -3206,9 +3228,9 @@
       <c r="I120" s="7"/>
       <c r="J120" s="6"/>
     </row>
-    <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="43"/>
-      <c r="B121" s="50"/>
+    <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="44"/>
+      <c r="B121" s="61"/>
       <c r="C121" s="36">
         <v>43992</v>
       </c>
@@ -3226,9 +3248,9 @@
       <c r="I121" s="7"/>
       <c r="J121" s="10"/>
     </row>
-    <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="43"/>
-      <c r="B122" s="50"/>
+    <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="44"/>
+      <c r="B122" s="61"/>
       <c r="C122" s="36">
         <v>43994</v>
       </c>
@@ -3246,9 +3268,9 @@
       <c r="I122" s="7"/>
       <c r="J122" s="10"/>
     </row>
-    <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="43"/>
-      <c r="B123" s="50"/>
+    <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="44"/>
+      <c r="B123" s="61"/>
       <c r="C123" s="36">
         <v>43996</v>
       </c>
@@ -3266,9 +3288,9 @@
       <c r="I123" s="7"/>
       <c r="J123" s="10"/>
     </row>
-    <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="43"/>
-      <c r="B124" s="50"/>
+    <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="44"/>
+      <c r="B124" s="61"/>
       <c r="C124" s="36">
         <v>43998</v>
       </c>
@@ -3286,9 +3308,9 @@
       <c r="I124" s="12"/>
       <c r="J124" s="10"/>
     </row>
-    <row r="125" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="43"/>
-      <c r="B125" s="50"/>
+    <row r="125" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="44"/>
+      <c r="B125" s="61"/>
       <c r="C125" s="36">
         <v>44000</v>
       </c>
@@ -3306,9 +3328,9 @@
       <c r="I125" s="12"/>
       <c r="J125" s="10"/>
     </row>
-    <row r="126" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="43"/>
-      <c r="B126" s="50"/>
+    <row r="126" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="44"/>
+      <c r="B126" s="61"/>
       <c r="C126" s="36">
         <v>44002</v>
       </c>
@@ -3326,9 +3348,9 @@
       <c r="I126" s="12"/>
       <c r="J126" s="10"/>
     </row>
-    <row r="127" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="43"/>
-      <c r="B127" s="50"/>
+    <row r="127" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="44"/>
+      <c r="B127" s="61"/>
       <c r="C127" s="36">
         <v>44004</v>
       </c>
@@ -3346,9 +3368,9 @@
       <c r="I127" s="12"/>
       <c r="J127" s="10"/>
     </row>
-    <row r="128" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="43"/>
-      <c r="B128" s="51"/>
+    <row r="128" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="44"/>
+      <c r="B128" s="62"/>
       <c r="C128" s="36">
         <v>44006</v>
       </c>
@@ -3366,11 +3388,11 @@
       <c r="I128" s="9"/>
       <c r="J128" s="10"/>
     </row>
-    <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="47">
+    <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="55">
         <v>10</v>
       </c>
-      <c r="B129" s="48" t="s">
+      <c r="B129" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C129" s="37">
@@ -3390,9 +3412,9 @@
       <c r="I129" s="19"/>
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="43"/>
-      <c r="B130" s="43"/>
+    <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="44"/>
+      <c r="B130" s="44"/>
       <c r="C130" s="37">
         <v>43986</v>
       </c>
@@ -3410,9 +3432,9 @@
       <c r="I130" s="21"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="43"/>
-      <c r="B131" s="43"/>
+    <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="44"/>
+      <c r="B131" s="44"/>
       <c r="C131" s="37">
         <v>43987</v>
       </c>
@@ -3430,9 +3452,9 @@
       <c r="I131" s="21"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="43"/>
-      <c r="B132" s="43"/>
+    <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="44"/>
+      <c r="B132" s="44"/>
       <c r="C132" s="37">
         <v>43988</v>
       </c>
@@ -3450,9 +3472,9 @@
       <c r="I132" s="21"/>
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="43"/>
-      <c r="B133" s="43"/>
+    <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="44"/>
+      <c r="B133" s="44"/>
       <c r="C133" s="37">
         <v>43989</v>
       </c>
@@ -3470,9 +3492,9 @@
       <c r="I133" s="21"/>
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="43"/>
-      <c r="B134" s="43"/>
+    <row r="134" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="44"/>
+      <c r="B134" s="44"/>
       <c r="C134" s="37">
         <v>43990</v>
       </c>
@@ -3490,9 +3512,9 @@
       <c r="I134" s="21"/>
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="43"/>
-      <c r="B135" s="43"/>
+    <row r="135" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="44"/>
+      <c r="B135" s="44"/>
       <c r="C135" s="37">
         <v>43992</v>
       </c>
@@ -3510,9 +3532,9 @@
       <c r="I135" s="21"/>
       <c r="J135" s="22"/>
     </row>
-    <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="43"/>
-      <c r="B136" s="43"/>
+    <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="44"/>
+      <c r="B136" s="44"/>
       <c r="C136" s="37">
         <v>43994</v>
       </c>
@@ -3530,9 +3552,9 @@
       <c r="I136" s="21"/>
       <c r="J136" s="22"/>
     </row>
-    <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
+    <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="44"/>
+      <c r="B137" s="44"/>
       <c r="C137" s="37">
         <v>43996</v>
       </c>
@@ -3550,9 +3572,9 @@
       <c r="I137" s="21"/>
       <c r="J137" s="22"/>
     </row>
-    <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
+    <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
       <c r="C138" s="37">
         <v>43998</v>
       </c>
@@ -3570,9 +3592,9 @@
       <c r="I138" s="24"/>
       <c r="J138" s="22"/>
     </row>
-    <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="43"/>
-      <c r="B139" s="43"/>
+    <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="44"/>
+      <c r="B139" s="44"/>
       <c r="C139" s="37">
         <v>44000</v>
       </c>
@@ -3590,9 +3612,9 @@
       <c r="I139" s="24"/>
       <c r="J139" s="22"/>
     </row>
-    <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="43"/>
-      <c r="B140" s="43"/>
+    <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="44"/>
+      <c r="B140" s="44"/>
       <c r="C140" s="37">
         <v>44002</v>
       </c>
@@ -3610,9 +3632,9 @@
       <c r="I140" s="24"/>
       <c r="J140" s="22"/>
     </row>
-    <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="43"/>
-      <c r="B141" s="43"/>
+    <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="44"/>
+      <c r="B141" s="44"/>
       <c r="C141" s="37">
         <v>44004</v>
       </c>
@@ -3630,9 +3652,9 @@
       <c r="I141" s="24"/>
       <c r="J141" s="22"/>
     </row>
-    <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="43"/>
-      <c r="B142" s="46"/>
+    <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="44"/>
+      <c r="B142" s="45"/>
       <c r="C142" s="37">
         <v>44006</v>
       </c>
@@ -3650,11 +3672,11 @@
       <c r="I142" s="27"/>
       <c r="J142" s="22"/>
     </row>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="44">
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="51">
         <v>11</v>
       </c>
-      <c r="B143" s="45" t="s">
+      <c r="B143" s="46" t="s">
         <v>23</v>
       </c>
       <c r="C143" s="36">
@@ -3673,9 +3695,9 @@
       <c r="H143" s="4"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="43"/>
-      <c r="B144" s="43"/>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="44"/>
+      <c r="B144" s="44"/>
       <c r="C144" s="36">
         <v>43986</v>
       </c>
@@ -3692,9 +3714,9 @@
       <c r="H144" s="4"/>
       <c r="I144" s="7"/>
     </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="43"/>
-      <c r="B145" s="43"/>
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="44"/>
+      <c r="B145" s="44"/>
       <c r="C145" s="36">
         <v>43987</v>
       </c>
@@ -3711,9 +3733,9 @@
       <c r="H145" s="4"/>
       <c r="I145" s="7"/>
     </row>
-    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="43"/>
-      <c r="B146" s="43"/>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="44"/>
+      <c r="B146" s="44"/>
       <c r="C146" s="36">
         <v>43988</v>
       </c>
@@ -3730,9 +3752,9 @@
       <c r="H146" s="4"/>
       <c r="I146" s="7"/>
     </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="43"/>
-      <c r="B147" s="43"/>
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="44"/>
+      <c r="B147" s="44"/>
       <c r="C147" s="36">
         <v>43989</v>
       </c>
@@ -3749,9 +3771,9 @@
       <c r="H147" s="4"/>
       <c r="I147" s="7"/>
     </row>
-    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="43"/>
-      <c r="B148" s="43"/>
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="44"/>
+      <c r="B148" s="44"/>
       <c r="C148" s="36">
         <v>43990</v>
       </c>
@@ -3768,9 +3790,9 @@
       <c r="H148" s="4"/>
       <c r="I148" s="7"/>
     </row>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="43"/>
-      <c r="B149" s="43"/>
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="44"/>
+      <c r="B149" s="44"/>
       <c r="C149" s="36">
         <v>43992</v>
       </c>
@@ -3787,9 +3809,9 @@
       <c r="H149" s="4"/>
       <c r="I149" s="7"/>
     </row>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="43"/>
-      <c r="B150" s="43"/>
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="44"/>
+      <c r="B150" s="44"/>
       <c r="C150" s="36">
         <v>43994</v>
       </c>
@@ -3806,9 +3828,9 @@
       <c r="H150" s="4"/>
       <c r="I150" s="7"/>
     </row>
-    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="43"/>
-      <c r="B151" s="43"/>
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="44"/>
+      <c r="B151" s="44"/>
       <c r="C151" s="36">
         <v>43996</v>
       </c>
@@ -3825,9 +3847,9 @@
       <c r="H151" s="4"/>
       <c r="I151" s="7"/>
     </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="43"/>
-      <c r="B152" s="43"/>
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="44"/>
+      <c r="B152" s="44"/>
       <c r="C152" s="36">
         <v>43998</v>
       </c>
@@ -3844,9 +3866,9 @@
       <c r="H152" s="7"/>
       <c r="I152" s="12"/>
     </row>
-    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="43"/>
-      <c r="B153" s="43"/>
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="44"/>
+      <c r="B153" s="44"/>
       <c r="C153" s="36">
         <v>44000</v>
       </c>
@@ -3863,9 +3885,9 @@
       <c r="H153" s="7"/>
       <c r="I153" s="12"/>
     </row>
-    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="43"/>
-      <c r="B154" s="43"/>
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="44"/>
+      <c r="B154" s="44"/>
       <c r="C154" s="36">
         <v>44002</v>
       </c>
@@ -3882,9 +3904,9 @@
       <c r="H154" s="7"/>
       <c r="I154" s="12"/>
     </row>
-    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="43"/>
-      <c r="B155" s="43"/>
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="44"/>
+      <c r="B155" s="44"/>
       <c r="C155" s="36">
         <v>44004</v>
       </c>
@@ -3901,9 +3923,9 @@
       <c r="H155" s="7"/>
       <c r="I155" s="12"/>
     </row>
-    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="43"/>
-      <c r="B156" s="46"/>
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="44"/>
+      <c r="B156" s="45"/>
       <c r="C156" s="36">
         <v>44006</v>
       </c>
@@ -3920,11 +3942,11 @@
       <c r="H156" s="7"/>
       <c r="I156" s="9"/>
     </row>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="47">
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="55">
         <v>12</v>
       </c>
-      <c r="B157" s="48" t="s">
+      <c r="B157" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C157" s="37">
@@ -3944,9 +3966,9 @@
       <c r="I157" s="19"/>
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="43"/>
-      <c r="B158" s="43"/>
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="44"/>
+      <c r="B158" s="44"/>
       <c r="C158" s="37">
         <v>43986</v>
       </c>
@@ -3964,9 +3986,9 @@
       <c r="I158" s="21"/>
       <c r="J158" s="20"/>
     </row>
-    <row r="159" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="43"/>
-      <c r="B159" s="43"/>
+    <row r="159" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="44"/>
+      <c r="B159" s="44"/>
       <c r="C159" s="37">
         <v>43987</v>
       </c>
@@ -3984,9 +4006,9 @@
       <c r="I159" s="21"/>
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="43"/>
-      <c r="B160" s="43"/>
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="44"/>
+      <c r="B160" s="44"/>
       <c r="C160" s="37">
         <v>43988</v>
       </c>
@@ -4004,9 +4026,9 @@
       <c r="I160" s="21"/>
       <c r="J160" s="20"/>
     </row>
-    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="43"/>
-      <c r="B161" s="43"/>
+    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="44"/>
+      <c r="B161" s="44"/>
       <c r="C161" s="37">
         <v>43989</v>
       </c>
@@ -4024,9 +4046,9 @@
       <c r="I161" s="21"/>
       <c r="J161" s="20"/>
     </row>
-    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="43"/>
-      <c r="B162" s="43"/>
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="44"/>
+      <c r="B162" s="44"/>
       <c r="C162" s="37">
         <v>43990</v>
       </c>
@@ -4044,9 +4066,9 @@
       <c r="I162" s="21"/>
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="43"/>
-      <c r="B163" s="43"/>
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="44"/>
+      <c r="B163" s="44"/>
       <c r="C163" s="37">
         <v>43992</v>
       </c>
@@ -4064,9 +4086,9 @@
       <c r="I163" s="21"/>
       <c r="J163" s="22"/>
     </row>
-    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="43"/>
-      <c r="B164" s="43"/>
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="44"/>
+      <c r="B164" s="44"/>
       <c r="C164" s="37">
         <v>43994</v>
       </c>
@@ -4084,9 +4106,9 @@
       <c r="I164" s="21"/>
       <c r="J164" s="22"/>
     </row>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="43"/>
-      <c r="B165" s="43"/>
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="44"/>
+      <c r="B165" s="44"/>
       <c r="C165" s="37">
         <v>43996</v>
       </c>
@@ -4104,9 +4126,9 @@
       <c r="I165" s="21"/>
       <c r="J165" s="22"/>
     </row>
-    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="43"/>
-      <c r="B166" s="43"/>
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="44"/>
+      <c r="B166" s="44"/>
       <c r="C166" s="37">
         <v>43998</v>
       </c>
@@ -4124,9 +4146,9 @@
       <c r="I166" s="24"/>
       <c r="J166" s="22"/>
     </row>
-    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="43"/>
-      <c r="B167" s="43"/>
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="44"/>
+      <c r="B167" s="44"/>
       <c r="C167" s="37">
         <v>44000</v>
       </c>
@@ -4144,9 +4166,9 @@
       <c r="I167" s="24"/>
       <c r="J167" s="22"/>
     </row>
-    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="43"/>
-      <c r="B168" s="43"/>
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="44"/>
+      <c r="B168" s="44"/>
       <c r="C168" s="37">
         <v>44002</v>
       </c>
@@ -4164,9 +4186,9 @@
       <c r="I168" s="24"/>
       <c r="J168" s="22"/>
     </row>
-    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="43"/>
-      <c r="B169" s="43"/>
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="44"/>
+      <c r="B169" s="44"/>
       <c r="C169" s="37">
         <v>44004</v>
       </c>
@@ -4184,9 +4206,9 @@
       <c r="I169" s="24"/>
       <c r="J169" s="22"/>
     </row>
-    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="43"/>
-      <c r="B170" s="46"/>
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="44"/>
+      <c r="B170" s="45"/>
       <c r="C170" s="37">
         <v>44006</v>
       </c>
@@ -4204,11 +4226,11 @@
       <c r="I170" s="27"/>
       <c r="J170" s="22"/>
     </row>
-    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="44">
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="51">
         <v>13</v>
       </c>
-      <c r="B171" s="45" t="s">
+      <c r="B171" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C171" s="36">
@@ -4227,9 +4249,9 @@
       <c r="H171" s="4"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="43"/>
-      <c r="B172" s="43"/>
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="44"/>
+      <c r="B172" s="44"/>
       <c r="C172" s="36">
         <v>43986</v>
       </c>
@@ -4246,9 +4268,9 @@
       <c r="H172" s="4"/>
       <c r="I172" s="7"/>
     </row>
-    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="43"/>
-      <c r="B173" s="43"/>
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="44"/>
+      <c r="B173" s="44"/>
       <c r="C173" s="36">
         <v>43987</v>
       </c>
@@ -4265,9 +4287,9 @@
       <c r="H173" s="4"/>
       <c r="I173" s="7"/>
     </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="43"/>
-      <c r="B174" s="43"/>
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="44"/>
+      <c r="B174" s="44"/>
       <c r="C174" s="36">
         <v>43988</v>
       </c>
@@ -4284,9 +4306,9 @@
       <c r="H174" s="4"/>
       <c r="I174" s="7"/>
     </row>
-    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="43"/>
-      <c r="B175" s="43"/>
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="44"/>
+      <c r="B175" s="44"/>
       <c r="C175" s="36">
         <v>43989</v>
       </c>
@@ -4303,9 +4325,9 @@
       <c r="H175" s="4"/>
       <c r="I175" s="7"/>
     </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="43"/>
-      <c r="B176" s="43"/>
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="44"/>
+      <c r="B176" s="44"/>
       <c r="C176" s="36">
         <v>43990</v>
       </c>
@@ -4322,9 +4344,9 @@
       <c r="H176" s="4"/>
       <c r="I176" s="7"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="43"/>
-      <c r="B177" s="43"/>
+    <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="44"/>
+      <c r="B177" s="44"/>
       <c r="C177" s="36">
         <v>43992</v>
       </c>
@@ -4341,9 +4363,9 @@
       <c r="H177" s="4"/>
       <c r="I177" s="7"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="43"/>
-      <c r="B178" s="43"/>
+    <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="44"/>
+      <c r="B178" s="44"/>
       <c r="C178" s="36">
         <v>43994</v>
       </c>
@@ -4360,9 +4382,9 @@
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="43"/>
-      <c r="B179" s="43"/>
+    <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="44"/>
+      <c r="B179" s="44"/>
       <c r="C179" s="36">
         <v>43996</v>
       </c>
@@ -4379,9 +4401,9 @@
       <c r="H179" s="7"/>
       <c r="I179" s="9"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="43"/>
-      <c r="B180" s="43"/>
+    <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="44"/>
+      <c r="B180" s="44"/>
       <c r="C180" s="36">
         <v>43998</v>
       </c>
@@ -4398,9 +4420,9 @@
       <c r="H180" s="7"/>
       <c r="I180" s="12"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="43"/>
-      <c r="B181" s="43"/>
+    <row r="181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="44"/>
+      <c r="B181" s="44"/>
       <c r="C181" s="36">
         <v>44000</v>
       </c>
@@ -4417,9 +4439,9 @@
       <c r="H181" s="7"/>
       <c r="I181" s="12"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="43"/>
-      <c r="B182" s="43"/>
+    <row r="182" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="44"/>
+      <c r="B182" s="44"/>
       <c r="C182" s="36">
         <v>44002</v>
       </c>
@@ -4436,9 +4458,9 @@
       <c r="H182" s="7"/>
       <c r="I182" s="12"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="43"/>
-      <c r="B183" s="43"/>
+    <row r="183" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="44"/>
+      <c r="B183" s="44"/>
       <c r="C183" s="36">
         <v>44004</v>
       </c>
@@ -4455,9 +4477,9 @@
       <c r="H183" s="7"/>
       <c r="I183" s="12"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="43"/>
-      <c r="B184" s="46"/>
+    <row r="184" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="44"/>
+      <c r="B184" s="45"/>
       <c r="C184" s="36">
         <v>44006</v>
       </c>
@@ -4474,381 +4496,400 @@
       <c r="H184" s="7"/>
       <c r="I184" s="12"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B143:B156"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A157:A170"/>
+    <mergeCell ref="A171:A184"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A142"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="B129:B142"/>
+    <mergeCell ref="B31:B44"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A86"/>
     <mergeCell ref="B157:B170"/>
     <mergeCell ref="B171:B184"/>
     <mergeCell ref="H1:H2"/>
@@ -4865,25 +4906,6 @@
     <mergeCell ref="A17:A30"/>
     <mergeCell ref="B17:B30"/>
     <mergeCell ref="A31:A44"/>
-    <mergeCell ref="B31:B44"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A129:A142"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B87:B100"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="B129:B142"/>
-    <mergeCell ref="B143:B156"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="A157:A170"/>
-    <mergeCell ref="A171:A184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
